--- a/sofaaudit/input.xlsx
+++ b/sofaaudit/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="AL1" s="55">
         <f>SUM(AK:AK)</f>
-        <v>8.9700000000000006</v>
+        <v>21528</v>
       </c>
       <c r="AM1" s="54" t="s">
         <v>788</v>
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K2">
         <v>2.99</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="AK2" s="54">
         <f t="shared" ref="AK2:AK4" si="1">AJ2*J2*K2</f>
-        <v>2.99</v>
+        <v>598</v>
       </c>
       <c r="AL2" s="54" t="str">
         <f>VLOOKUP(S2,Region!A:B,2,FALSE)</f>
@@ -3307,11 +3307,11 @@
       </c>
       <c r="AO2" s="54">
         <f t="shared" ref="AO2" si="2">AK2*(1-AN2)</f>
-        <v>2.99</v>
+        <v>598</v>
       </c>
       <c r="AP2" s="54">
         <f t="shared" ref="AP2" si="3">AO2*(1-AM2)</f>
-        <v>2.3920000000000003</v>
+        <v>478.40000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -3343,7 +3343,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="K3">
         <v>2.99</v>
@@ -3370,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="S3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T3" t="s">
         <v>7</v>
@@ -3415,11 +3415,11 @@
       </c>
       <c r="AK3" s="54">
         <f t="shared" si="1"/>
-        <v>2.99</v>
+        <v>8970</v>
       </c>
       <c r="AL3" s="54" t="str">
         <f>VLOOKUP(S3,Region!A:B,2,FALSE)</f>
-        <v>Brazil</v>
+        <v>Latam</v>
       </c>
       <c r="AM3" s="54">
         <f>SUMIFS(Encoding!D:D,Encoding!B:B,Sales!AL3,Encoding!A:A,Sales!C3)</f>
@@ -3427,15 +3427,15 @@
       </c>
       <c r="AN3" s="54">
         <f>SUMIFS(Encoding!Q:Q,Encoding!B:B,Sales!AL3,Encoding!A:A,Sales!C3)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="54">
         <f t="shared" ref="AO3:AO4" si="4">AK3*(1-AN3)</f>
-        <v>2.8464800000000001</v>
+        <v>8970</v>
       </c>
       <c r="AP3" s="54">
         <f t="shared" ref="AP3:AP4" si="5">AO3*(1-AM3)</f>
-        <v>2.2771840000000001</v>
+        <v>7176</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3467,7 +3467,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="K4">
         <v>2.99</v>
@@ -3494,7 +3494,7 @@
         <v>7</v>
       </c>
       <c r="S4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T4" t="s">
         <v>7</v>
@@ -3539,11 +3539,11 @@
       </c>
       <c r="AK4" s="54">
         <f t="shared" si="1"/>
-        <v>2.99</v>
+        <v>11960</v>
       </c>
       <c r="AL4" s="54" t="str">
         <f>VLOOKUP(S4,Region!A:B,2,FALSE)</f>
-        <v>Brazil</v>
+        <v>Latam</v>
       </c>
       <c r="AM4" s="54">
         <f>SUMIFS(Encoding!D:D,Encoding!B:B,Sales!AL4,Encoding!A:A,Sales!C4)</f>
@@ -3551,15 +3551,15 @@
       </c>
       <c r="AN4" s="54">
         <f>SUMIFS(Encoding!Q:Q,Encoding!B:B,Sales!AL4,Encoding!A:A,Sales!C4)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="54">
         <f t="shared" si="4"/>
-        <v>2.8464800000000001</v>
+        <v>11960</v>
       </c>
       <c r="AP4" s="54">
         <f t="shared" si="5"/>
-        <v>2.2771840000000001</v>
+        <v>9568</v>
       </c>
     </row>
   </sheetData>

--- a/sofaaudit/input.xlsx
+++ b/sofaaudit/input.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="794">
   <si>
     <t>APPLE</t>
   </si>
@@ -2403,6 +2403,12 @@
   </si>
   <si>
     <t>Royalty</t>
+  </si>
+  <si>
+    <t>41720-101</t>
+  </si>
+  <si>
+    <t>69905 065</t>
   </si>
 </sst>
 </file>
@@ -3045,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3175,7 +3181,7 @@
       </c>
       <c r="AL1" s="55">
         <f>SUM(AK:AK)</f>
-        <v>21528</v>
+        <v>25116</v>
       </c>
       <c r="AM1" s="54" t="s">
         <v>788</v>
@@ -3430,11 +3436,11 @@
         <v>0</v>
       </c>
       <c r="AO3" s="54">
-        <f t="shared" ref="AO3:AO4" si="4">AK3*(1-AN3)</f>
+        <f t="shared" ref="AO3:AO5" si="4">AK3*(1-AN3)</f>
         <v>8970</v>
       </c>
       <c r="AP3" s="54">
-        <f t="shared" ref="AP3:AP4" si="5">AO3*(1-AM3)</f>
+        <f t="shared" ref="AP3:AP5" si="5">AO3*(1-AM3)</f>
         <v>7176</v>
       </c>
     </row>
@@ -3560,6 +3566,378 @@
       <c r="AP4" s="54">
         <f t="shared" si="5"/>
         <v>9568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>2.99</v>
+      </c>
+      <c r="L5" s="1">
+        <v>41727</v>
+      </c>
+      <c r="M5">
+        <v>4337161924357</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>-74272731</v>
+      </c>
+      <c r="P5" s="1">
+        <v>41729</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>11.643333333333301</v>
+      </c>
+      <c r="X5">
+        <v>673532180</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="54" t="str">
+        <f t="shared" ref="AI5:AI7" si="6">CONCATENATE(MONTH(L5),"/",1,"/",YEAR(L5))</f>
+        <v>3/1/2014</v>
+      </c>
+      <c r="AJ5" s="54">
+        <f>SUMIFS(Currency!A:A,Currency!B:B,Sales!AI5,Currency!C:C,Sales!R5)</f>
+        <v>1</v>
+      </c>
+      <c r="AK5" s="54">
+        <f t="shared" ref="AK5:AK7" si="7">AJ5*J5*K5</f>
+        <v>299</v>
+      </c>
+      <c r="AL5" s="54" t="str">
+        <f>VLOOKUP(S5,Region!A:B,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="AM5" s="54">
+        <f>SUMIFS(Encoding!D:D,Encoding!B:B,Sales!AL5,Encoding!A:A,Sales!C5)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AN5" s="54">
+        <f>SUMIFS(Encoding!Q:Q,Encoding!B:B,Sales!AL5,Encoding!A:A,Sales!C5)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AO5" s="54">
+        <f t="shared" si="4"/>
+        <v>284.64799999999997</v>
+      </c>
+      <c r="AP5" s="54">
+        <f t="shared" si="5"/>
+        <v>227.71839999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>2.99</v>
+      </c>
+      <c r="L6" s="1">
+        <v>41735</v>
+      </c>
+      <c r="M6">
+        <v>-28162092057454</v>
+      </c>
+      <c r="N6" t="s">
+        <v>792</v>
+      </c>
+      <c r="O6">
+        <v>-3041746543.5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>41735</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>16.633333333333301</v>
+      </c>
+      <c r="X6">
+        <v>673532180</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v>4/1/2014</v>
+      </c>
+      <c r="AJ6" s="54">
+        <f>SUMIFS(Currency!A:A,Currency!B:B,Sales!AI6,Currency!C:C,Sales!R6)</f>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="54">
+        <f t="shared" si="7"/>
+        <v>299</v>
+      </c>
+      <c r="AL6" s="54" t="str">
+        <f>VLOOKUP(S6,Region!A:B,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="AM6" s="54">
+        <f>SUMIFS(Encoding!D:D,Encoding!B:B,Sales!AL6,Encoding!A:A,Sales!C6)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AN6" s="54">
+        <f>SUMIFS(Encoding!Q:Q,Encoding!B:B,Sales!AL6,Encoding!A:A,Sales!C6)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AO6" s="54">
+        <f t="shared" ref="AO6:AO7" si="8">AK6*(1-AN6)</f>
+        <v>284.64799999999997</v>
+      </c>
+      <c r="AP6" s="54">
+        <f t="shared" ref="AP6:AP7" si="9">AO6*(1-AM6)</f>
+        <v>227.71839999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <v>2.99</v>
+      </c>
+      <c r="L7" s="1">
+        <v>41734</v>
+      </c>
+      <c r="M7">
+        <v>-60661346039265</v>
+      </c>
+      <c r="N7" t="s">
+        <v>793</v>
+      </c>
+      <c r="O7">
+        <v>-6009220356</v>
+      </c>
+      <c r="P7" s="1">
+        <v>41734</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>21.623333333333299</v>
+      </c>
+      <c r="X7">
+        <v>673532180</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v>4/1/2014</v>
+      </c>
+      <c r="AJ7" s="54">
+        <f>SUMIFS(Currency!A:A,Currency!B:B,Sales!AI7,Currency!C:C,Sales!R7)</f>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="54">
+        <f t="shared" si="7"/>
+        <v>2990</v>
+      </c>
+      <c r="AL7" s="54" t="str">
+        <f>VLOOKUP(S7,Region!A:B,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="AM7" s="54">
+        <f>SUMIFS(Encoding!D:D,Encoding!B:B,Sales!AL7,Encoding!A:A,Sales!C7)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AN7" s="54">
+        <f>SUMIFS(Encoding!Q:Q,Encoding!B:B,Sales!AL7,Encoding!A:A,Sales!C7)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AO7" s="54">
+        <f t="shared" si="8"/>
+        <v>2846.48</v>
+      </c>
+      <c r="AP7" s="54">
+        <f t="shared" si="9"/>
+        <v>2277.1840000000002</v>
       </c>
     </row>
   </sheetData>
